--- a/xlsx_files/Race17.xlsx
+++ b/xlsx_files/Race17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A9A39-D018-42C3-8570-156492EBDE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD9D6D8-4F8F-49F2-B9F7-9EB3A40021BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3360" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="4344" windowWidth="26904" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Track Name</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>01:41.7920</t>
+  </si>
+  <si>
+    <t>01:40.8920</t>
+  </si>
+  <si>
+    <t>Oleh Pitcik</t>
   </si>
 </sst>
 </file>
@@ -568,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +644,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="1">
-        <v>44824</v>
+        <v>44584</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -646,11 +652,17 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -786,11 +798,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -802,6 +813,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
